--- a/04_Edificaciones/P0402/P0402.xlsx
+++ b/04_Edificaciones/P0402/P0402.xlsx
@@ -164,7 +164,7 @@
     <t>Viviendas que aprovechan energía solar</t>
   </si>
   <si>
-    <t>Viviendas que aprovechan energía solar, por medio del uso de páneles fotovoltaicos o calentadores solares)</t>
+    <t>Viviendas que aprovechan energía solar, por medio del uso de paneles fotovoltaicos o calentadores solares</t>
   </si>
   <si>
     <t>2015</t>
